--- a/kingsland/end_kingsland.xlsx
+++ b/kingsland/end_kingsland.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_bot\kd1662\kingsland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AAB560-A8B3-4E86-974E-5869458267E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6FD1DB-8925-4E19-B36D-013DF8D2C5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1C62CA9B-2C36-4068-8C8A-AFEEE438DBBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9B3A077C-18AE-427F-8763-5D1E5D5CA1E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-06-28" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-06-29" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="274">
   <si>
     <t>Governor Name</t>
   </si>
@@ -104,10 +104,6 @@
     <t>ᴾnoidᶜᵒʷ</t>
   </si>
   <si>
-    <t xml:space="preserve">(WINs]WINs-UNITED WE WIN
-</t>
-  </si>
-  <si>
     <t>ManhAnMy88</t>
   </si>
   <si>
@@ -127,24 +123,24 @@
   </si>
   <si>
     <t>十 ALUCARD 十</t>
-  </si>
-  <si>
-    <t>火Akaza乂</t>
-  </si>
-  <si>
-    <t>Ove HK</t>
-  </si>
-  <si>
-    <t>FreeByrd</t>
-  </si>
-  <si>
-    <t>乂TENNO乂</t>
   </si>
   <si>
     <t xml:space="preserve">[IL62]Ironclad Legion
 </t>
   </si>
   <si>
+    <t>火Akaza乂</t>
+  </si>
+  <si>
+    <t>Ove HK</t>
+  </si>
+  <si>
+    <t>FreeByrd</t>
+  </si>
+  <si>
+    <t>乂TENNO乂</t>
+  </si>
+  <si>
     <t>ᶜᵏKJM81</t>
   </si>
   <si>
@@ -242,6 +238,10 @@
     <t>Wileos</t>
   </si>
   <si>
+    <t xml:space="preserve">[GDC]los dragones negross
+</t>
+  </si>
+  <si>
     <t>ElKapponi</t>
   </si>
   <si>
@@ -273,49 +273,53 @@
     <t>Lord BRAZAL</t>
   </si>
   <si>
+    <t xml:space="preserve">[3441] BRAHMA
+</t>
+  </si>
+  <si>
+    <t>Wōđinaz ІІ</t>
+  </si>
+  <si>
+    <t>火Akaza乂gold</t>
+  </si>
+  <si>
+    <t>Duboish2</t>
+  </si>
+  <si>
+    <t>TsuFarm7</t>
+  </si>
+  <si>
+    <t>DreamzZy</t>
+  </si>
+  <si>
+    <t>ALSHEEHI BANK</t>
+  </si>
+  <si>
+    <t>Raz0rSh4rp</t>
+  </si>
+  <si>
+    <t>Money4joker2</t>
+  </si>
+  <si>
+    <t>Atlas mini2</t>
+  </si>
+  <si>
+    <t>ᴸᴺKJM81</t>
+  </si>
+  <si>
+    <t>Ove HK 2</t>
+  </si>
+  <si>
+    <t>TsuMini</t>
+  </si>
+  <si>
+    <t>aliLEBANON</t>
+  </si>
+  <si>
     <t xml:space="preserve">[3441]BRAHMA
 </t>
   </si>
   <si>
-    <t>Wōđinaz ІІ</t>
-  </si>
-  <si>
-    <t>火Akaza乂gold</t>
-  </si>
-  <si>
-    <t>Duboish2</t>
-  </si>
-  <si>
-    <t>TsuFarm7</t>
-  </si>
-  <si>
-    <t>DreamzZy</t>
-  </si>
-  <si>
-    <t>ALSHEEHI BANK</t>
-  </si>
-  <si>
-    <t>Raz0rSh4rp</t>
-  </si>
-  <si>
-    <t>Money4joker2</t>
-  </si>
-  <si>
-    <t>Atlas mini2</t>
-  </si>
-  <si>
-    <t>ᴸᴺKJM81</t>
-  </si>
-  <si>
-    <t>Ove HK 2</t>
-  </si>
-  <si>
-    <t>TsuMini</t>
-  </si>
-  <si>
-    <t>aliLEBANON</t>
-  </si>
-  <si>
     <t>TsuFarm8</t>
   </si>
   <si>
@@ -500,10 +504,6 @@
     <t>xxxsw22</t>
   </si>
   <si>
-    <t xml:space="preserve">[GDC]los dragones negross
-</t>
-  </si>
-  <si>
     <t>Viserys消除2</t>
   </si>
   <si>
@@ -817,9 +817,6 @@
     <t>执政官56840460</t>
   </si>
   <si>
-    <t>Kyeol 乂 39</t>
-  </si>
-  <si>
     <t>Gobernador45452488</t>
   </si>
   <si>
@@ -833,9 +830,6 @@
   </si>
   <si>
     <t>Gobernador197982730</t>
-  </si>
-  <si>
-    <t>ghostbr30</t>
   </si>
   <si>
     <t>Gobernador44553286</t>
@@ -1249,22 +1243,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6EDB07-3F1E-4BA5-B18F-3A2600F8D263}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CF283A-2DEE-4515-B8D6-D98567A5AFD6}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1352,7 +1344,7 @@
         <v>3351638617</v>
       </c>
       <c r="L2" s="2">
-        <v>89525</v>
+        <v>89526</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>17</v>
@@ -1425,16 +1417,16 @@
         <v>38708637</v>
       </c>
       <c r="C4" s="2">
-        <v>88279759</v>
+        <v>91308195</v>
       </c>
       <c r="D4" s="2">
-        <v>7618305199</v>
+        <v>7669775576</v>
       </c>
       <c r="E4" s="2">
-        <v>25105069</v>
+        <v>25383661</v>
       </c>
       <c r="F4" s="2">
-        <v>93477329</v>
+        <v>93477762</v>
       </c>
       <c r="G4" s="2">
         <v>2134970</v>
@@ -1443,16 +1435,16 @@
         <v>1879536</v>
       </c>
       <c r="I4" s="2">
-        <v>156589997</v>
+        <v>157368224</v>
       </c>
       <c r="J4" s="2">
-        <v>301096084</v>
+        <v>303280485</v>
       </c>
       <c r="K4" s="2">
         <v>13909675341</v>
       </c>
       <c r="L4" s="2">
-        <v>127726</v>
+        <v>127767</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>17</v>
@@ -1475,7 +1467,7 @@
         <v>2036382</v>
       </c>
       <c r="C5" s="2">
-        <v>87077079</v>
+        <v>87037849</v>
       </c>
       <c r="D5" s="2">
         <v>10483398946</v>
@@ -1502,7 +1494,7 @@
         <v>27051348859</v>
       </c>
       <c r="L5" s="2">
-        <v>188184</v>
+        <v>188193</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>17</v>
@@ -1569,34 +1561,34 @@
         <v>70446861</v>
       </c>
       <c r="C7" s="2">
-        <v>84211966</v>
+        <v>78811920</v>
       </c>
       <c r="D7" s="2">
-        <v>2024937185</v>
+        <v>2047665450</v>
       </c>
       <c r="E7" s="2">
-        <v>20534866</v>
+        <v>20840291</v>
       </c>
       <c r="F7" s="2">
-        <v>94126019</v>
+        <v>94136612</v>
       </c>
       <c r="G7" s="2">
-        <v>492306</v>
+        <v>493344</v>
       </c>
       <c r="H7" s="2">
         <v>649020</v>
       </c>
       <c r="I7" s="2">
-        <v>56238481</v>
+        <v>56702088</v>
       </c>
       <c r="J7" s="2">
-        <v>72007324</v>
+        <v>72911724</v>
       </c>
       <c r="K7" s="2">
         <v>7881462478</v>
       </c>
       <c r="L7" s="2">
-        <v>129006</v>
+        <v>129050</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>17</v>
@@ -1619,34 +1611,34 @@
         <v>63832228</v>
       </c>
       <c r="C8" s="2">
-        <v>83016146</v>
+        <v>83248446</v>
       </c>
       <c r="D8" s="2">
-        <v>8913331757</v>
+        <v>8982268905</v>
       </c>
       <c r="E8" s="2">
-        <v>31093578</v>
+        <v>31208694</v>
       </c>
       <c r="F8" s="2">
-        <v>10741356</v>
+        <v>10761028</v>
       </c>
       <c r="G8" s="2">
-        <v>10043419</v>
+        <v>10043926</v>
       </c>
       <c r="H8" s="2">
         <v>5108657</v>
       </c>
       <c r="I8" s="2">
-        <v>176434722</v>
+        <v>176856840</v>
       </c>
       <c r="J8" s="2">
-        <v>355315740</v>
+        <v>358551291</v>
       </c>
       <c r="K8" s="2">
         <v>21697064921</v>
       </c>
       <c r="L8" s="2">
-        <v>950239</v>
+        <v>350309</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>17</v>
@@ -1669,34 +1661,34 @@
         <v>57823214</v>
       </c>
       <c r="C9" s="2">
-        <v>82544563</v>
+        <v>81377395</v>
       </c>
       <c r="D9" s="2">
-        <v>8384918736</v>
+        <v>8463069748</v>
       </c>
       <c r="E9" s="2">
-        <v>28834802</v>
+        <v>28970147</v>
       </c>
       <c r="F9" s="2">
-        <v>20032572</v>
+        <v>20075140</v>
       </c>
       <c r="G9" s="2">
-        <v>4105522</v>
+        <v>4105611</v>
       </c>
       <c r="H9" s="2">
         <v>3813912</v>
       </c>
       <c r="I9" s="2">
-        <v>199284757</v>
+        <v>200416105</v>
       </c>
       <c r="J9" s="2">
-        <v>318229898</v>
+        <v>321571340</v>
       </c>
       <c r="K9" s="2">
         <v>14220389111</v>
       </c>
       <c r="L9" s="2">
-        <v>306734</v>
+        <v>306817</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>17</v>
@@ -1719,16 +1711,16 @@
         <v>49041000</v>
       </c>
       <c r="C10" s="2">
-        <v>81772442</v>
+        <v>81480672</v>
       </c>
       <c r="D10" s="2">
-        <v>4106331548</v>
+        <v>4109536316</v>
       </c>
       <c r="E10" s="2">
-        <v>21592614</v>
+        <v>21747971</v>
       </c>
       <c r="F10" s="2">
-        <v>63790454</v>
+        <v>63791540</v>
       </c>
       <c r="G10" s="2">
         <v>1910410</v>
@@ -1737,16 +1729,16 @@
         <v>2334652</v>
       </c>
       <c r="I10" s="2">
-        <v>112544975</v>
+        <v>112705814</v>
       </c>
       <c r="J10" s="2">
-        <v>147748214</v>
+        <v>147828022</v>
       </c>
       <c r="K10" s="2">
         <v>40867505926</v>
       </c>
       <c r="L10" s="2">
-        <v>75604</v>
+        <v>75605</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>17</v>
@@ -1769,10 +1761,10 @@
         <v>93584462</v>
       </c>
       <c r="C11" s="2">
-        <v>81673824</v>
+        <v>79512354</v>
       </c>
       <c r="D11" s="2">
-        <v>5576881656</v>
+        <v>5579428486</v>
       </c>
       <c r="E11" s="2">
         <v>26643514</v>
@@ -1787,19 +1779,19 @@
         <v>4319884</v>
       </c>
       <c r="I11" s="2">
-        <v>122299038</v>
+        <v>122301825</v>
       </c>
       <c r="J11" s="2">
-        <v>216319763</v>
+        <v>216445711</v>
       </c>
       <c r="K11" s="2">
         <v>21512409630</v>
       </c>
       <c r="L11" s="2">
-        <v>139303</v>
+        <v>139310</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N11" s="2">
         <v>76454903</v>
@@ -1813,7 +1805,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
         <v>46268923</v>
@@ -1846,7 +1838,7 @@
         <v>87484800822</v>
       </c>
       <c r="L12" s="2">
-        <v>81964</v>
+        <v>81969</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>17</v>
@@ -1857,16 +1849,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
         <v>142978261</v>
       </c>
       <c r="C13" s="2">
-        <v>80684247</v>
+        <v>80719807</v>
       </c>
       <c r="D13" s="2">
-        <v>955138254</v>
+        <v>956732994</v>
       </c>
       <c r="E13" s="2">
         <v>5767900</v>
@@ -1881,16 +1873,16 @@
         <v>1011185</v>
       </c>
       <c r="I13" s="2">
-        <v>25363324</v>
+        <v>25374280</v>
       </c>
       <c r="J13" s="2">
-        <v>33695066</v>
+        <v>33769325</v>
       </c>
       <c r="K13" s="2">
         <v>9890545066</v>
       </c>
       <c r="L13" s="2">
-        <v>72816</v>
+        <v>72835</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>17</v>
@@ -1907,40 +1899,40 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>38767756</v>
       </c>
       <c r="C14" s="2">
-        <v>78346509</v>
+        <v>81089313</v>
       </c>
       <c r="D14" s="2">
-        <v>1958017931</v>
+        <v>1976080127</v>
       </c>
       <c r="E14" s="2">
-        <v>21299469</v>
+        <v>21416488</v>
       </c>
       <c r="F14" s="2">
-        <v>4222828</v>
+        <v>4228226</v>
       </c>
       <c r="G14" s="2">
-        <v>2127758</v>
+        <v>2127916</v>
       </c>
       <c r="H14" s="2">
         <v>1729580</v>
       </c>
       <c r="I14" s="2">
-        <v>58026053</v>
+        <v>58305285</v>
       </c>
       <c r="J14" s="2">
-        <v>68286950</v>
+        <v>69050374</v>
       </c>
       <c r="K14" s="2">
         <v>6790271507</v>
       </c>
       <c r="L14" s="2">
-        <v>82437</v>
+        <v>82444</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>17</v>
@@ -1957,13 +1949,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
         <v>89003413</v>
       </c>
       <c r="C15" s="2">
-        <v>78094661</v>
+        <v>78123221</v>
       </c>
       <c r="D15" s="2">
         <v>4577854828</v>
@@ -1990,7 +1982,7 @@
         <v>271875392735</v>
       </c>
       <c r="L15" s="2">
-        <v>126032</v>
+        <v>126036</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>17</v>
@@ -2007,7 +1999,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
         <v>9393436</v>
@@ -2057,19 +2049,19 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>136635217</v>
       </c>
       <c r="C17" s="2">
-        <v>77421342</v>
+        <v>74877156</v>
       </c>
       <c r="D17" s="2">
-        <v>2199035926</v>
+        <v>2240364256</v>
       </c>
       <c r="E17" s="2">
-        <v>14728618</v>
+        <v>14788483</v>
       </c>
       <c r="F17" s="2">
         <v>15948900</v>
@@ -2081,16 +2073,16 @@
         <v>2058410</v>
       </c>
       <c r="I17" s="2">
-        <v>78792647</v>
+        <v>78927106</v>
       </c>
       <c r="J17" s="2">
-        <v>69806213</v>
+        <v>71805400</v>
       </c>
       <c r="K17" s="2">
         <v>11495215342</v>
       </c>
       <c r="L17" s="2">
-        <v>54954</v>
+        <v>54963</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>17</v>
@@ -2107,22 +2099,22 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
         <v>111154401</v>
       </c>
       <c r="C18" s="2">
-        <v>77159290</v>
+        <v>76304556</v>
       </c>
       <c r="D18" s="2">
-        <v>1983707854</v>
+        <v>1986736729</v>
       </c>
       <c r="E18" s="2">
-        <v>13244985</v>
+        <v>13327905</v>
       </c>
       <c r="F18" s="2">
-        <v>75267524</v>
+        <v>75267846</v>
       </c>
       <c r="G18" s="2">
         <v>2970786</v>
@@ -2131,19 +2123,19 @@
         <v>2927172</v>
       </c>
       <c r="I18" s="2">
-        <v>43530067</v>
+        <v>43567496</v>
       </c>
       <c r="J18" s="2">
-        <v>75785171</v>
+        <v>75917897</v>
       </c>
       <c r="K18" s="2">
         <v>9793498330</v>
       </c>
       <c r="L18" s="2">
-        <v>103130</v>
+        <v>103164</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N18" s="2">
         <v>30617796</v>
@@ -2163,34 +2155,34 @@
         <v>59146982</v>
       </c>
       <c r="C19" s="2">
-        <v>77042367</v>
+        <v>72181245</v>
       </c>
       <c r="D19" s="2">
-        <v>3005649336</v>
+        <v>3066541424</v>
       </c>
       <c r="E19" s="2">
-        <v>27068662</v>
+        <v>27665130</v>
       </c>
       <c r="F19" s="2">
-        <v>2157323</v>
+        <v>2194361</v>
       </c>
       <c r="G19" s="2">
-        <v>2166667</v>
+        <v>2209940</v>
       </c>
       <c r="H19" s="2">
-        <v>1105802</v>
+        <v>1115618</v>
       </c>
       <c r="I19" s="2">
-        <v>83636621</v>
+        <v>84678518</v>
       </c>
       <c r="J19" s="2">
-        <v>108004756</v>
+        <v>110521751</v>
       </c>
       <c r="K19" s="2">
         <v>6189271378</v>
       </c>
       <c r="L19" s="2">
-        <v>164841</v>
+        <v>164925</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>17</v>
@@ -2263,34 +2255,34 @@
         <v>28063072</v>
       </c>
       <c r="C21" s="2">
-        <v>74856519</v>
+        <v>73636213</v>
       </c>
       <c r="D21" s="2">
-        <v>7742215452</v>
+        <v>7752129888</v>
       </c>
       <c r="E21" s="2">
-        <v>23578130</v>
+        <v>23674401</v>
       </c>
       <c r="F21" s="2">
-        <v>13179633</v>
+        <v>13193054</v>
       </c>
       <c r="G21" s="2">
-        <v>3615745</v>
+        <v>3616261</v>
       </c>
       <c r="H21" s="2">
         <v>5346644</v>
       </c>
       <c r="I21" s="2">
-        <v>239884270</v>
+        <v>239964820</v>
       </c>
       <c r="J21" s="2">
-        <v>265605938</v>
+        <v>266061199</v>
       </c>
       <c r="K21" s="2">
         <v>34370586864</v>
       </c>
       <c r="L21" s="2">
-        <v>179770</v>
+        <v>179777</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>17</v>
@@ -2313,10 +2305,10 @@
         <v>59061395</v>
       </c>
       <c r="C22" s="2">
-        <v>74031281</v>
+        <v>73490307</v>
       </c>
       <c r="D22" s="2">
-        <v>2690043388</v>
+        <v>2691525428</v>
       </c>
       <c r="E22" s="2">
         <v>32692018</v>
@@ -2331,19 +2323,19 @@
         <v>3632912</v>
       </c>
       <c r="I22" s="2">
-        <v>101473628</v>
+        <v>101474064</v>
       </c>
       <c r="J22" s="2">
-        <v>82312784</v>
+        <v>82386668</v>
       </c>
       <c r="K22" s="2">
         <v>5649861440</v>
       </c>
       <c r="L22" s="2">
-        <v>342076</v>
+        <v>3242085</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N22" s="2">
         <v>30641042</v>
@@ -2357,22 +2349,22 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2">
         <v>64570107</v>
       </c>
       <c r="C23" s="2">
-        <v>73854856</v>
+        <v>73471316</v>
       </c>
       <c r="D23" s="2">
-        <v>1877424901</v>
+        <v>1893624531</v>
       </c>
       <c r="E23" s="2">
-        <v>17779829</v>
+        <v>17876297</v>
       </c>
       <c r="F23" s="2">
-        <v>5422859</v>
+        <v>5423755</v>
       </c>
       <c r="G23" s="2">
         <v>1125493</v>
@@ -2381,16 +2373,16 @@
         <v>2399176</v>
       </c>
       <c r="I23" s="2">
-        <v>47691056</v>
+        <v>47773461</v>
       </c>
       <c r="J23" s="2">
-        <v>69379104</v>
+        <v>70147874</v>
       </c>
       <c r="K23" s="2">
         <v>822779549</v>
       </c>
       <c r="L23" s="2">
-        <v>67776</v>
+        <v>67784</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>17</v>
@@ -2407,7 +2399,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2">
         <v>134146479</v>
@@ -2457,19 +2449,19 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2">
         <v>74815491</v>
       </c>
       <c r="C25" s="2">
-        <v>72359937</v>
+        <v>74282007</v>
       </c>
       <c r="D25" s="2">
-        <v>1654355364</v>
+        <v>1658814264</v>
       </c>
       <c r="E25" s="2">
-        <v>22268091</v>
+        <v>22274126</v>
       </c>
       <c r="F25" s="2">
         <v>26318594</v>
@@ -2481,16 +2473,16 @@
         <v>747521</v>
       </c>
       <c r="I25" s="2">
-        <v>50792701</v>
+        <v>50837503</v>
       </c>
       <c r="J25" s="2">
-        <v>56819657</v>
+        <v>57020201</v>
       </c>
       <c r="K25" s="2">
         <v>1101235351</v>
       </c>
       <c r="L25" s="2">
-        <v>35186</v>
+        <v>35192</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>17</v>
@@ -2507,19 +2499,19 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2">
         <v>58744662</v>
       </c>
       <c r="C26" s="2">
-        <v>72125653</v>
+        <v>71515871</v>
       </c>
       <c r="D26" s="2">
-        <v>3954724817</v>
+        <v>3988864287</v>
       </c>
       <c r="E26" s="2">
-        <v>19560635</v>
+        <v>19642131</v>
       </c>
       <c r="F26" s="2">
         <v>1361407</v>
@@ -2531,19 +2523,19 @@
         <v>339076</v>
       </c>
       <c r="I26" s="2">
-        <v>53171978</v>
+        <v>53674009</v>
       </c>
       <c r="J26" s="2">
-        <v>170931779</v>
+        <v>172387737</v>
       </c>
       <c r="K26" s="2">
         <v>7062689203</v>
       </c>
       <c r="L26" s="2">
-        <v>110751</v>
+        <v>110874</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N26" s="2">
         <v>32158439</v>
@@ -2557,13 +2549,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
         <v>74359287</v>
       </c>
       <c r="C27" s="2">
-        <v>75512249</v>
+        <v>755124420</v>
       </c>
       <c r="D27" s="2">
         <v>1812189627</v>
@@ -2590,7 +2582,7 @@
         <v>14894886314</v>
       </c>
       <c r="L27" s="2">
-        <v>103366</v>
+        <v>103373</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>17</v>
@@ -2601,7 +2593,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2">
         <v>116198736</v>
@@ -2651,7 +2643,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2">
         <v>38161087</v>
@@ -2701,7 +2693,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2">
         <v>49499709</v>
@@ -2751,16 +2743,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2">
         <v>76274504</v>
       </c>
       <c r="C31" s="2">
-        <v>70374685</v>
+        <v>69331135</v>
       </c>
       <c r="D31" s="2">
-        <v>974469973</v>
+        <v>974995903</v>
       </c>
       <c r="E31" s="2">
         <v>22363209</v>
@@ -2775,16 +2767,16 @@
         <v>210559</v>
       </c>
       <c r="I31" s="2">
-        <v>23340341</v>
+        <v>23344012</v>
       </c>
       <c r="J31" s="2">
-        <v>36705995</v>
+        <v>36730456</v>
       </c>
       <c r="K31" s="2">
         <v>8754952590</v>
       </c>
       <c r="L31" s="2">
-        <v>30130</v>
+        <v>30133</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>17</v>
@@ -2801,19 +2793,19 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2">
         <v>18103697</v>
       </c>
       <c r="C32" s="2">
-        <v>70108022</v>
+        <v>70106956</v>
       </c>
       <c r="D32" s="2">
-        <v>882627689</v>
+        <v>883628369</v>
       </c>
       <c r="E32" s="2">
-        <v>20722520</v>
+        <v>20724237</v>
       </c>
       <c r="F32" s="2">
         <v>451467</v>
@@ -2828,13 +2820,13 @@
         <v>19345076</v>
       </c>
       <c r="J32" s="2">
-        <v>34408428</v>
+        <v>34458462</v>
       </c>
       <c r="K32" s="2">
         <v>3008483403</v>
       </c>
       <c r="L32" s="2">
-        <v>79796</v>
+        <v>79799</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>17</v>
@@ -2845,22 +2837,22 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2">
         <v>113277991</v>
       </c>
       <c r="C33" s="2">
-        <v>69665415</v>
+        <v>70728485</v>
       </c>
       <c r="D33" s="2">
-        <v>3652956969</v>
+        <v>3656305355</v>
       </c>
       <c r="E33" s="2">
-        <v>20954612</v>
+        <v>20957530</v>
       </c>
       <c r="F33" s="2">
-        <v>54507608</v>
+        <v>54507685</v>
       </c>
       <c r="G33" s="2">
         <v>8759007</v>
@@ -2869,16 +2861,16 @@
         <v>13262701</v>
       </c>
       <c r="I33" s="2">
-        <v>142150885</v>
+        <v>142195150</v>
       </c>
       <c r="J33" s="2">
-        <v>107498889</v>
+        <v>107644175</v>
       </c>
       <c r="K33" s="2">
         <v>27315644105</v>
       </c>
       <c r="L33" s="2">
-        <v>65660</v>
+        <v>65671</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>17</v>
@@ -2895,40 +2887,40 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2">
         <v>48975732</v>
       </c>
       <c r="C34" s="2">
-        <v>69368268</v>
+        <v>69108680</v>
       </c>
       <c r="D34" s="2">
-        <v>3858203415</v>
+        <v>3869704110</v>
       </c>
       <c r="E34" s="2">
-        <v>22272219</v>
+        <v>22294325</v>
       </c>
       <c r="F34" s="2">
-        <v>64966419</v>
+        <v>64975541</v>
       </c>
       <c r="G34" s="2">
-        <v>2903440</v>
+        <v>2906289</v>
       </c>
       <c r="H34" s="2">
-        <v>4763513</v>
+        <v>4764701</v>
       </c>
       <c r="I34" s="2">
-        <v>114985040</v>
+        <v>115217048</v>
       </c>
       <c r="J34" s="2">
-        <v>133524940</v>
+        <v>133983357</v>
       </c>
       <c r="K34" s="2">
         <v>2489405077</v>
       </c>
       <c r="L34" s="2">
-        <v>88225</v>
+        <v>88359</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>17</v>
@@ -2945,40 +2937,40 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2">
         <v>58349304</v>
       </c>
       <c r="C35" s="2">
-        <v>66720554</v>
+        <v>67624358</v>
       </c>
       <c r="D35" s="2">
-        <v>6003549258</v>
+        <v>6024874113</v>
       </c>
       <c r="E35" s="2">
-        <v>29545144</v>
+        <v>29586768</v>
       </c>
       <c r="F35" s="2">
-        <v>65266743</v>
+        <v>65272649</v>
       </c>
       <c r="G35" s="2">
-        <v>7383066</v>
+        <v>7383283</v>
       </c>
       <c r="H35" s="2">
         <v>11620182</v>
       </c>
       <c r="I35" s="2">
-        <v>211736825</v>
+        <v>211867313</v>
       </c>
       <c r="J35" s="2">
-        <v>190594040</v>
+        <v>191594958</v>
       </c>
       <c r="K35" s="2">
         <v>49818117419</v>
       </c>
       <c r="L35" s="2">
-        <v>122665</v>
+        <v>122691</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>17</v>
@@ -2989,40 +2981,40 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2">
         <v>16365096</v>
       </c>
       <c r="C36" s="2">
-        <v>66643474</v>
+        <v>65882614</v>
       </c>
       <c r="D36" s="2">
-        <v>1635810092</v>
+        <v>1647670787</v>
       </c>
       <c r="E36" s="2">
-        <v>16764289</v>
+        <v>16838997</v>
       </c>
       <c r="F36" s="2">
-        <v>13534663</v>
+        <v>13539256</v>
       </c>
       <c r="G36" s="2">
-        <v>2577159</v>
+        <v>2577607</v>
       </c>
       <c r="H36" s="2">
         <v>1188728</v>
       </c>
       <c r="I36" s="2">
-        <v>52115061</v>
+        <v>52224257</v>
       </c>
       <c r="J36" s="2">
-        <v>55102166</v>
+        <v>55640512</v>
       </c>
       <c r="K36" s="2">
         <v>8720657761</v>
       </c>
       <c r="L36" s="2">
-        <v>186937</v>
+        <v>186975</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>17</v>
@@ -3033,7 +3025,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2">
         <v>46393719</v>
@@ -3069,7 +3061,7 @@
         <v>37603</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3077,40 +3069,40 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2">
         <v>123185482</v>
       </c>
       <c r="C38" s="2">
-        <v>65611128</v>
+        <v>65255177</v>
       </c>
       <c r="D38" s="2">
-        <v>1210342421</v>
+        <v>1217623593</v>
       </c>
       <c r="E38" s="2">
-        <v>16155338</v>
+        <v>16332542</v>
       </c>
       <c r="F38" s="2">
-        <v>62324098</v>
+        <v>62329088</v>
       </c>
       <c r="G38" s="2">
         <v>9616364</v>
       </c>
       <c r="H38" s="2">
-        <v>21172006</v>
+        <v>21172007</v>
       </c>
       <c r="I38" s="2">
-        <v>56452555</v>
+        <v>56563554</v>
       </c>
       <c r="J38" s="2">
-        <v>26471565</v>
+        <v>26780074</v>
       </c>
       <c r="K38" s="2">
         <v>6901378937</v>
       </c>
       <c r="L38" s="2">
-        <v>92353</v>
+        <v>92460</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>17</v>
@@ -3127,16 +3119,16 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2">
         <v>49407662</v>
       </c>
       <c r="C39" s="2">
-        <v>63611752</v>
+        <v>63484383</v>
       </c>
       <c r="D39" s="2">
-        <v>2404165994</v>
+        <v>2405208364</v>
       </c>
       <c r="E39" s="2">
         <v>19773418</v>
@@ -3151,16 +3143,16 @@
         <v>2876751</v>
       </c>
       <c r="I39" s="2">
-        <v>70230565</v>
+        <v>70232478</v>
       </c>
       <c r="J39" s="2">
-        <v>83867058</v>
+        <v>83918220</v>
       </c>
       <c r="K39" s="2">
         <v>3846178662</v>
       </c>
       <c r="L39" s="2">
-        <v>104083</v>
+        <v>104099</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>17</v>
@@ -3171,40 +3163,40 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
         <v>3732705</v>
       </c>
       <c r="C40" s="2">
-        <v>62065834</v>
+        <v>62031242</v>
       </c>
       <c r="D40" s="2">
-        <v>1195908179</v>
+        <v>1203032875</v>
       </c>
       <c r="E40" s="2">
-        <v>15863142</v>
+        <v>15891547</v>
       </c>
       <c r="F40" s="2">
-        <v>15226395</v>
+        <v>15231688</v>
       </c>
       <c r="G40" s="2">
         <v>256513</v>
       </c>
       <c r="H40" s="2">
-        <v>1036231</v>
+        <v>1036243</v>
       </c>
       <c r="I40" s="2">
-        <v>25313119</v>
+        <v>25357302</v>
       </c>
       <c r="J40" s="2">
-        <v>46753688</v>
+        <v>47087776</v>
       </c>
       <c r="K40" s="2">
         <v>10896842826</v>
       </c>
       <c r="L40" s="2">
-        <v>69607</v>
+        <v>69646</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>17</v>
@@ -3221,19 +3213,19 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2">
         <v>9660755</v>
       </c>
       <c r="C41" s="2">
-        <v>62145543</v>
+        <v>62598433</v>
       </c>
       <c r="D41" s="2">
-        <v>1356479333</v>
+        <v>1357649533</v>
       </c>
       <c r="E41" s="2">
-        <v>23640413</v>
+        <v>23663079</v>
       </c>
       <c r="F41" s="2">
         <v>2869807</v>
@@ -3245,16 +3237,16 @@
         <v>343497</v>
       </c>
       <c r="I41" s="2">
-        <v>36308622</v>
+        <v>36342126</v>
       </c>
       <c r="J41" s="2">
-        <v>49481988</v>
+        <v>49523746</v>
       </c>
       <c r="K41" s="2">
-        <v>25506725027</v>
+        <v>25736725027</v>
       </c>
       <c r="L41" s="2">
-        <v>128689</v>
+        <v>128706</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>17</v>
@@ -3271,7 +3263,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2">
         <v>38173573</v>
@@ -3319,7 +3311,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2">
         <v>146589818</v>
@@ -3367,7 +3359,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2">
         <v>82291199</v>
@@ -3415,7 +3407,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2">
         <v>45454322</v>
@@ -3457,7 +3449,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2">
         <v>43736244</v>
@@ -3499,7 +3491,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2">
         <v>41355236</v>
@@ -3547,13 +3539,13 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2">
         <v>116006542</v>
       </c>
       <c r="C48" s="2">
-        <v>52463805</v>
+        <v>55566129</v>
       </c>
       <c r="D48" s="2">
         <v>234005385</v>
@@ -3580,7 +3572,7 @@
         <v>119685088</v>
       </c>
       <c r="L48" s="2">
-        <v>34325</v>
+        <v>34332</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>17</v>
@@ -3597,19 +3589,19 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2">
         <v>64773635</v>
       </c>
       <c r="C49" s="2">
-        <v>51050200</v>
+        <v>51976756</v>
       </c>
       <c r="D49" s="2">
-        <v>142763253</v>
+        <v>143011313</v>
       </c>
       <c r="E49" s="2">
-        <v>7892567</v>
+        <v>7917810</v>
       </c>
       <c r="F49" s="2">
         <v>232809</v>
@@ -3621,16 +3613,16 @@
         <v>336045</v>
       </c>
       <c r="I49" s="2">
-        <v>4222943</v>
+        <v>4231367</v>
       </c>
       <c r="J49" s="2">
-        <v>4955896</v>
+        <v>4964087</v>
       </c>
       <c r="K49" s="2">
         <v>46838887766</v>
       </c>
       <c r="L49" s="2">
-        <v>13165</v>
+        <v>131638</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>17</v>
@@ -3647,7 +3639,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2">
         <v>67719250</v>
@@ -3697,22 +3689,22 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="2">
         <v>71753312</v>
       </c>
       <c r="C51" s="2">
-        <v>42979565</v>
+        <v>42093944</v>
       </c>
       <c r="D51" s="2">
-        <v>389589666</v>
+        <v>392873782</v>
       </c>
       <c r="E51" s="2">
-        <v>20223831</v>
+        <v>20446375</v>
       </c>
       <c r="F51" s="2">
-        <v>917394</v>
+        <v>917420</v>
       </c>
       <c r="G51" s="2">
         <v>1545957</v>
@@ -3721,16 +3713,16 @@
         <v>288426</v>
       </c>
       <c r="I51" s="2">
-        <v>10091003</v>
+        <v>10195784</v>
       </c>
       <c r="J51" s="2">
-        <v>14212527</v>
+        <v>14324342</v>
       </c>
       <c r="K51" s="2">
-        <v>35660980642</v>
+        <v>35720980642</v>
       </c>
       <c r="L51" s="2">
-        <v>69560</v>
+        <v>69601</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>17</v>
@@ -3747,19 +3739,19 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2">
         <v>65057849</v>
       </c>
       <c r="C52" s="2">
-        <v>42359638</v>
+        <v>42666502</v>
       </c>
       <c r="D52" s="2">
-        <v>436896951</v>
+        <v>438282301</v>
       </c>
       <c r="E52" s="2">
-        <v>14318541</v>
+        <v>14475317</v>
       </c>
       <c r="F52" s="2">
         <v>3857297</v>
@@ -3771,16 +3763,16 @@
         <v>463504</v>
       </c>
       <c r="I52" s="2">
-        <v>17351650</v>
+        <v>17374101</v>
       </c>
       <c r="J52" s="2">
-        <v>12968157</v>
+        <v>13026199</v>
       </c>
       <c r="K52" s="2">
         <v>20974313782</v>
       </c>
       <c r="L52" s="2">
-        <v>19833</v>
+        <v>19840</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>17</v>
@@ -3797,13 +3789,13 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2">
         <v>25545564</v>
       </c>
       <c r="C53" s="2">
-        <v>35397803</v>
+        <v>35395982</v>
       </c>
       <c r="D53" s="2">
         <v>121784264</v>
@@ -3830,9 +3822,11 @@
         <v>12833823609</v>
       </c>
       <c r="L53" s="2">
-        <v>12427</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>12422</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="N53" s="2">
         <v>18010</v>
       </c>
@@ -3849,16 +3843,16 @@
         <v>70307141</v>
       </c>
       <c r="C54" s="2">
-        <v>34572701</v>
+        <v>34476329</v>
       </c>
       <c r="D54" s="2">
-        <v>14219197</v>
+        <v>15522401</v>
       </c>
       <c r="E54" s="2">
-        <v>5283739</v>
+        <v>5306402</v>
       </c>
       <c r="F54" s="2">
-        <v>1469</v>
+        <v>1488</v>
       </c>
       <c r="G54" s="2">
         <v>12</v>
@@ -3867,16 +3861,16 @@
         <v>2000</v>
       </c>
       <c r="I54" s="2">
-        <v>552308</v>
+        <v>621476</v>
       </c>
       <c r="J54" s="2">
-        <v>434390</v>
+        <v>464966</v>
       </c>
       <c r="K54" s="2">
-        <v>17103085106</v>
+        <v>17308881048</v>
       </c>
       <c r="L54" s="2">
-        <v>6061</v>
+        <v>6063</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>17</v>
@@ -3991,7 +3985,7 @@
         <v>122312204</v>
       </c>
       <c r="C57" s="2">
-        <v>33439164</v>
+        <v>33453964</v>
       </c>
       <c r="D57" s="2">
         <v>69228294</v>
@@ -4041,10 +4035,10 @@
         <v>116370262</v>
       </c>
       <c r="C58" s="2">
-        <v>33149154</v>
+        <v>33245362</v>
       </c>
       <c r="D58" s="2">
-        <v>184754666</v>
+        <v>184828586</v>
       </c>
       <c r="E58" s="2">
         <v>7754488</v>
@@ -4062,13 +4056,13 @@
         <v>5451005</v>
       </c>
       <c r="J58" s="2">
-        <v>6244908</v>
+        <v>6248604</v>
       </c>
       <c r="K58" s="2">
         <v>1576543254</v>
       </c>
       <c r="L58" s="2">
-        <v>16195</v>
+        <v>16201</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>17</v>
@@ -4125,16 +4119,16 @@
         <v>76028022</v>
       </c>
       <c r="C60" s="2">
-        <v>31973396</v>
+        <v>31012160</v>
       </c>
       <c r="D60" s="2">
-        <v>269581289</v>
+        <v>271725491</v>
       </c>
       <c r="E60" s="2">
-        <v>11936435</v>
+        <v>12109206</v>
       </c>
       <c r="F60" s="2">
-        <v>4385075</v>
+        <v>4385089</v>
       </c>
       <c r="G60" s="2">
         <v>221138</v>
@@ -4143,16 +4137,16 @@
         <v>328347</v>
       </c>
       <c r="I60" s="2">
-        <v>10142417</v>
+        <v>10227505</v>
       </c>
       <c r="J60" s="2">
-        <v>8276222</v>
+        <v>8340888</v>
       </c>
       <c r="K60" s="2">
         <v>18987000975</v>
       </c>
       <c r="L60" s="2">
-        <v>12264</v>
+        <v>12263</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>17</v>
@@ -4175,13 +4169,13 @@
         <v>20349059</v>
       </c>
       <c r="C61" s="2">
-        <v>30804606</v>
+        <v>30508758</v>
       </c>
       <c r="D61" s="2">
-        <v>51636018</v>
+        <v>51776328</v>
       </c>
       <c r="E61" s="2">
-        <v>1707133</v>
+        <v>1744144</v>
       </c>
       <c r="F61" s="2">
         <v>95384</v>
@@ -4193,10 +4187,10 @@
         <v>3563</v>
       </c>
       <c r="I61" s="2">
-        <v>1487038</v>
+        <v>1493087</v>
       </c>
       <c r="J61" s="2">
-        <v>1832327</v>
+        <v>1836318</v>
       </c>
       <c r="K61" s="2">
         <v>16066538128</v>
@@ -4346,7 +4340,7 @@
         <v>36149578740</v>
       </c>
       <c r="L64" s="2">
-        <v>10835</v>
+        <v>10833</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>17</v>
@@ -4369,13 +4363,13 @@
         <v>58481229</v>
       </c>
       <c r="C65" s="2">
-        <v>28881586</v>
+        <v>28783226</v>
       </c>
       <c r="D65" s="2">
-        <v>41409141</v>
+        <v>41726341</v>
       </c>
       <c r="E65" s="2">
-        <v>3894034</v>
+        <v>3916757</v>
       </c>
       <c r="F65" s="2">
         <v>350447</v>
@@ -4390,13 +4384,13 @@
         <v>1010383</v>
       </c>
       <c r="J65" s="2">
-        <v>1542356</v>
+        <v>1558216</v>
       </c>
       <c r="K65" s="2">
         <v>18630425320</v>
       </c>
       <c r="L65" s="2">
-        <v>5777</v>
+        <v>5780</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>17</v>
@@ -4419,7 +4413,7 @@
         <v>30958849</v>
       </c>
       <c r="C66" s="2">
-        <v>28457711</v>
+        <v>28476911</v>
       </c>
       <c r="D66" s="2">
         <v>109792209</v>
@@ -4446,7 +4440,7 @@
         <v>33290298814</v>
       </c>
       <c r="L66" s="2">
-        <v>14403</v>
+        <v>14405</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>17</v>
@@ -4665,13 +4659,13 @@
         <v>122958650</v>
       </c>
       <c r="C71" s="2">
-        <v>27191889</v>
+        <v>27104302</v>
       </c>
       <c r="D71" s="2">
-        <v>43550800</v>
+        <v>43789980</v>
       </c>
       <c r="E71" s="2">
-        <v>5751639</v>
+        <v>5897596</v>
       </c>
       <c r="F71" s="2">
         <v>127280</v>
@@ -4683,16 +4677,16 @@
         <v>15960</v>
       </c>
       <c r="I71" s="2">
-        <v>1167145</v>
+        <v>1177401</v>
       </c>
       <c r="J71" s="2">
-        <v>1576062</v>
+        <v>1582893</v>
       </c>
       <c r="K71" s="2">
         <v>8235404855</v>
       </c>
       <c r="L71" s="2">
-        <v>6704</v>
+        <v>6708</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>17</v>
@@ -4834,7 +4828,7 @@
         <v>32818491383</v>
       </c>
       <c r="L74" s="2">
-        <v>14892</v>
+        <v>14900</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>17</v>
@@ -4887,7 +4881,7 @@
         <v>3735</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="N75" s="2">
         <v>0</v>
@@ -4899,7 +4893,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2">
         <v>29240760</v>
@@ -4932,7 +4926,7 @@
         <v>26584222785</v>
       </c>
       <c r="L76" s="2">
-        <v>13762</v>
+        <v>13763</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>17</v>
@@ -4949,7 +4943,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2">
         <v>105627215</v>
@@ -4982,7 +4976,7 @@
         <v>13256058423</v>
       </c>
       <c r="L77" s="2">
-        <v>12473</v>
+        <v>12476</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>17</v>
@@ -4999,7 +4993,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2">
         <v>130372935</v>
@@ -5045,7 +5039,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2">
         <v>105649485</v>
@@ -5095,7 +5089,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2">
         <v>90969567</v>
@@ -5131,7 +5125,7 @@
         <v>9547</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N80" s="2">
         <v>0</v>
@@ -5143,7 +5137,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2">
         <v>102689344</v>
@@ -5176,7 +5170,7 @@
         <v>22568497910</v>
       </c>
       <c r="L81" s="2">
-        <v>5943</v>
+        <v>5944</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>17</v>
@@ -5193,22 +5187,22 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2">
         <v>138750545</v>
       </c>
       <c r="C82" s="2">
-        <v>24766760</v>
+        <v>24536452</v>
       </c>
       <c r="D82" s="2">
-        <v>36226702</v>
+        <v>38150506</v>
       </c>
       <c r="E82" s="2">
-        <v>1636606</v>
+        <v>1682975</v>
       </c>
       <c r="F82" s="2">
-        <v>430382</v>
+        <v>430400</v>
       </c>
       <c r="G82" s="2">
         <v>180890</v>
@@ -5217,16 +5211,16 @@
         <v>83284</v>
       </c>
       <c r="I82" s="2">
-        <v>968507</v>
+        <v>1046305</v>
       </c>
       <c r="J82" s="2">
-        <v>1288032</v>
+        <v>1345323</v>
       </c>
       <c r="K82" s="2">
         <v>11519594599</v>
       </c>
       <c r="L82" s="2">
-        <v>5695</v>
+        <v>5696</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>17</v>
@@ -5243,13 +5237,13 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2">
         <v>135874891</v>
       </c>
       <c r="C83" s="2">
-        <v>24448782</v>
+        <v>24754238</v>
       </c>
       <c r="D83" s="2">
         <v>33010031</v>
@@ -5276,7 +5270,7 @@
         <v>13574025187</v>
       </c>
       <c r="L83" s="2">
-        <v>31530</v>
+        <v>31531</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>17</v>
@@ -5293,7 +5287,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2">
         <v>102614248</v>
@@ -5343,13 +5337,13 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2">
         <v>145862727</v>
       </c>
       <c r="C85" s="2">
-        <v>24050390</v>
+        <v>25759934</v>
       </c>
       <c r="D85" s="2">
         <v>7250051</v>
@@ -5393,7 +5387,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2">
         <v>7967421</v>
@@ -5441,7 +5435,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2">
         <v>102573628</v>
@@ -5474,7 +5468,7 @@
         <v>19134301110</v>
       </c>
       <c r="L87" s="2">
-        <v>6129</v>
+        <v>6130</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>17</v>
@@ -5491,7 +5485,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2">
         <v>45454082</v>
@@ -5527,7 +5521,7 @@
         <v>5347</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -5535,13 +5529,13 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2">
         <v>45436797</v>
       </c>
       <c r="C89" s="2">
-        <v>23068640</v>
+        <v>23099504</v>
       </c>
       <c r="D89" s="2">
         <v>8566163</v>
@@ -5577,19 +5571,19 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2">
         <v>156065332</v>
       </c>
       <c r="C90" s="2">
-        <v>22641958</v>
+        <v>22580702</v>
       </c>
       <c r="D90" s="2">
-        <v>31502559</v>
+        <v>31586779</v>
       </c>
       <c r="E90" s="2">
-        <v>1190720</v>
+        <v>1211149</v>
       </c>
       <c r="F90" s="2">
         <v>462208</v>
@@ -5601,16 +5595,16 @@
         <v>282043</v>
       </c>
       <c r="I90" s="2">
-        <v>1142970</v>
+        <v>1146576</v>
       </c>
       <c r="J90" s="2">
-        <v>775735</v>
+        <v>778143</v>
       </c>
       <c r="K90" s="2">
         <v>1058641952</v>
       </c>
       <c r="L90" s="2">
-        <v>4105</v>
+        <v>4107</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>17</v>
@@ -5627,13 +5621,13 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2">
         <v>75597392</v>
       </c>
       <c r="C91" s="2">
-        <v>22431989</v>
+        <v>22625068</v>
       </c>
       <c r="D91" s="2">
         <v>3160675</v>
@@ -5663,7 +5657,7 @@
         <v>6851</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -5671,13 +5665,13 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2">
         <v>88149205</v>
       </c>
       <c r="C92" s="2">
-        <v>22297319</v>
+        <v>22324119</v>
       </c>
       <c r="D92" s="2">
         <v>42662658</v>
@@ -5707,7 +5701,7 @@
         <v>2492</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N92" s="2">
         <v>1084917</v>
@@ -5721,7 +5715,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2">
         <v>115316674</v>
@@ -5757,7 +5751,7 @@
         <v>8423</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N93" s="2">
         <v>204273</v>
@@ -5771,13 +5765,13 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2">
         <v>45422391</v>
       </c>
       <c r="C94" s="2">
-        <v>21229063</v>
+        <v>21249813</v>
       </c>
       <c r="D94" s="2">
         <v>7831044</v>
@@ -5807,7 +5801,7 @@
         <v>2817</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N94" s="2">
         <v>0</v>
@@ -5819,7 +5813,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2">
         <v>27032799</v>
@@ -5861,7 +5855,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2">
         <v>6186291</v>
@@ -5907,7 +5901,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2">
         <v>59510152</v>
@@ -5943,7 +5937,7 @@
         <v>12778</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N97" s="2">
         <v>45793</v>
@@ -5957,13 +5951,13 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2">
         <v>106774288</v>
       </c>
       <c r="C98" s="2">
-        <v>20808452</v>
+        <v>20980348</v>
       </c>
       <c r="D98" s="2">
         <v>34321188</v>
@@ -5990,10 +5984,10 @@
         <v>8254107082</v>
       </c>
       <c r="L98" s="2">
-        <v>3735</v>
+        <v>2736</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N98" s="2">
         <v>754022</v>
@@ -6007,19 +6001,19 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2">
         <v>174761986</v>
       </c>
       <c r="C99" s="2">
-        <v>20487541</v>
+        <v>20311833</v>
       </c>
       <c r="D99" s="2">
-        <v>3949743</v>
+        <v>4514573</v>
       </c>
       <c r="E99" s="2">
-        <v>620702</v>
+        <v>647878</v>
       </c>
       <c r="F99" s="2">
         <v>235036</v>
@@ -6031,16 +6025,16 @@
         <v>0</v>
       </c>
       <c r="I99" s="2">
-        <v>234903</v>
+        <v>242744</v>
       </c>
       <c r="J99" s="2">
-        <v>76026</v>
+        <v>100347</v>
       </c>
       <c r="K99" s="2">
-        <v>5846428314</v>
+        <v>5861935829</v>
       </c>
       <c r="L99" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>17</v>
@@ -6051,13 +6045,13 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2">
         <v>80915456</v>
       </c>
       <c r="C100" s="2">
-        <v>20395146</v>
+        <v>20963308</v>
       </c>
       <c r="D100" s="2">
         <v>53244563</v>
@@ -6084,10 +6078,10 @@
         <v>9338102968</v>
       </c>
       <c r="L100" s="2">
-        <v>3995</v>
+        <v>3996</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N100" s="2">
         <v>1500957</v>
@@ -6101,7 +6095,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2">
         <v>138480479</v>
@@ -6151,7 +6145,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2">
         <v>111380674</v>
@@ -6201,7 +6195,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2">
         <v>128158872</v>
@@ -6245,7 +6239,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2">
         <v>82063769</v>
@@ -6295,7 +6289,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2">
         <v>75908263</v>
@@ -6345,7 +6339,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2">
         <v>90737516</v>
@@ -6381,7 +6375,7 @@
         <v>7597</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N106" s="2">
         <v>39066</v>
@@ -6395,7 +6389,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2">
         <v>111381676</v>
@@ -6428,7 +6422,7 @@
         <v>14071995232</v>
       </c>
       <c r="L107" s="2">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>17</v>
@@ -6445,7 +6439,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2">
         <v>165660039</v>
@@ -6493,7 +6487,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2">
         <v>157599938</v>
@@ -6541,7 +6535,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B110" s="2">
         <v>62819682</v>
@@ -6574,7 +6568,7 @@
         <v>27045479815</v>
       </c>
       <c r="L110" s="2">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>17</v>
@@ -6591,7 +6585,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2">
         <v>133757841</v>
@@ -6641,7 +6635,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2">
         <v>89011324</v>
@@ -6689,7 +6683,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B113" s="2">
         <v>106280664</v>
@@ -6723,7 +6717,7 @@
         <v>3765</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N113" s="2">
         <v>0</v>
@@ -6733,7 +6727,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2">
         <v>138260227</v>
@@ -6769,7 +6763,7 @@
         <v>11510</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N114" s="2">
         <v>0</v>
@@ -6779,7 +6773,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2">
         <v>89407722</v>
@@ -6827,7 +6821,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2">
         <v>22650649</v>
@@ -6863,7 +6857,7 @@
         <v>1633</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -6871,7 +6865,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2">
         <v>83226771</v>
@@ -6921,7 +6915,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B118" s="2">
         <v>52156110</v>
@@ -6971,7 +6965,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2">
         <v>152874510</v>
@@ -7007,7 +7001,7 @@
         <v>18538</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N119" s="2">
         <v>188291</v>
@@ -7021,7 +7015,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2">
         <v>88464477</v>
@@ -7065,7 +7059,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2">
         <v>89355469</v>
@@ -7113,7 +7107,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2">
         <v>88478722</v>
@@ -7155,7 +7149,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2">
         <v>90769109</v>
@@ -7203,7 +7197,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2">
         <v>86428939</v>
@@ -7253,21 +7247,23 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2">
         <v>152870519</v>
       </c>
       <c r="C125" s="2">
-        <v>17520364</v>
+        <v>17445192</v>
       </c>
       <c r="D125" s="2">
-        <v>8153412</v>
+        <v>9456305</v>
       </c>
       <c r="E125" s="2">
-        <v>508742</v>
-      </c>
-      <c r="F125" s="2"/>
+        <v>531405</v>
+      </c>
+      <c r="F125" s="2">
+        <v>19</v>
+      </c>
       <c r="G125" s="2">
         <v>420</v>
       </c>
@@ -7275,18 +7271,20 @@
         <v>3313</v>
       </c>
       <c r="I125" s="2">
-        <v>310376</v>
+        <v>379519</v>
       </c>
       <c r="J125" s="2">
-        <v>251778</v>
+        <v>282351</v>
       </c>
       <c r="K125" s="2">
         <v>7104659236</v>
       </c>
       <c r="L125" s="2">
-        <v>32119</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>2120</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N125" s="2">
         <v>535872</v>
       </c>
@@ -7299,7 +7297,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2">
         <v>91649416</v>
@@ -7343,13 +7341,13 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2">
         <v>145876288</v>
       </c>
       <c r="C127" s="2">
-        <v>17218685</v>
+        <v>17244285</v>
       </c>
       <c r="D127" s="2">
         <v>4906994</v>
@@ -7379,7 +7377,7 @@
         <v>645</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -7695,7 +7693,7 @@
         <v>9940</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -7739,7 +7737,7 @@
         <v>1851</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N135" s="2">
         <v>68991</v>
@@ -7789,7 +7787,7 @@
         <v>4846</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N136" s="2">
         <v>60900</v>
@@ -7836,7 +7834,7 @@
         <v>21603424099</v>
       </c>
       <c r="L137" s="2">
-        <v>30375</v>
+        <v>3376</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>78</v>
@@ -7880,7 +7878,7 @@
         <v>23656171432</v>
       </c>
       <c r="L138" s="2">
-        <v>4733</v>
+        <v>4734</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>78</v>
@@ -7951,16 +7949,16 @@
         <v>132853690</v>
       </c>
       <c r="C140" s="2">
-        <v>15654453</v>
+        <v>15319597</v>
       </c>
       <c r="D140" s="2">
-        <v>8823554</v>
+        <v>10708257</v>
       </c>
       <c r="E140" s="2">
-        <v>676382</v>
+        <v>758934</v>
       </c>
       <c r="F140" s="2">
-        <v>8490</v>
+        <v>8506</v>
       </c>
       <c r="G140" s="2">
         <v>106195</v>
@@ -7969,16 +7967,16 @@
         <v>196324</v>
       </c>
       <c r="I140" s="2">
-        <v>140731</v>
+        <v>221145</v>
       </c>
       <c r="J140" s="2">
-        <v>320843</v>
+        <v>374871</v>
       </c>
       <c r="K140" s="2">
         <v>8129091544</v>
       </c>
       <c r="L140" s="2">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>17</v>
@@ -8135,7 +8133,7 @@
         <v>31043187</v>
       </c>
       <c r="C144" s="2">
-        <v>14438876</v>
+        <v>14447048</v>
       </c>
       <c r="D144" s="2">
         <v>25485818</v>
@@ -8215,7 +8213,7 @@
         <v>4317</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -8305,7 +8303,7 @@
         <v>1606</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N147" s="2">
         <v>550</v>
@@ -8403,7 +8401,7 @@
         <v>9499</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N149" s="2">
         <v>58446</v>
@@ -8499,7 +8497,7 @@
         <v>1889</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N151" s="2">
         <v>0</v>
@@ -8543,7 +8541,7 @@
         <v>1962</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N152" s="2">
         <v>0</v>
@@ -8561,7 +8559,7 @@
         <v>184098057</v>
       </c>
       <c r="C153" s="2">
-        <v>13521014</v>
+        <v>13524214</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2">
@@ -8580,7 +8578,7 @@
         <v>725698258</v>
       </c>
       <c r="L153" s="2">
-        <v>3079</v>
+        <v>2094</v>
       </c>
       <c r="M153" s="2" t="s">
         <v>17</v>
@@ -8627,7 +8625,7 @@
         <v>706</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -8689,7 +8687,7 @@
         <v>171174731</v>
       </c>
       <c r="C156" s="2">
-        <v>12535688</v>
+        <v>12554888</v>
       </c>
       <c r="D156" s="2">
         <v>6086</v>
@@ -8719,7 +8717,7 @@
         <v>1554</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -8757,13 +8755,13 @@
         <v>91088</v>
       </c>
       <c r="K157" s="2">
-        <v>1469054091</v>
+        <v>1574048834</v>
       </c>
       <c r="L157" s="2">
-        <v>7174</v>
+        <v>7176</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -8777,7 +8775,7 @@
         <v>166029476</v>
       </c>
       <c r="C158" s="2">
-        <v>12083602</v>
+        <v>12099602</v>
       </c>
       <c r="D158" s="2">
         <v>33622</v>
@@ -8802,10 +8800,10 @@
         <v>3232742162</v>
       </c>
       <c r="L158" s="2">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N158" s="2">
         <v>0</v>
@@ -8884,10 +8882,10 @@
         <v>6663431907</v>
       </c>
       <c r="L160" s="2">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -8926,10 +8924,10 @@
         <v>521791870</v>
       </c>
       <c r="L161" s="2">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -8966,10 +8964,10 @@
         <v>4653087210</v>
       </c>
       <c r="L162" s="2">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -9002,10 +9000,10 @@
         <v>5173052342</v>
       </c>
       <c r="L163" s="2">
-        <v>1492</v>
+        <v>1500</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -9049,7 +9047,7 @@
         <v>576</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -9082,10 +9080,10 @@
         <v>4056095158</v>
       </c>
       <c r="L165" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -9124,10 +9122,10 @@
         <v>3977391176</v>
       </c>
       <c r="L166" s="2">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -9167,7 +9165,7 @@
         <v>609</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -9203,7 +9201,7 @@
         <v>526</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -9241,7 +9239,7 @@
         <v>399</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -9279,7 +9277,7 @@
         <v>392</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -9323,7 +9321,7 @@
         <v>3577</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -9363,7 +9361,7 @@
         <v>362</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -9670,10 +9668,10 @@
         <v>3189607154</v>
       </c>
       <c r="L180" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -9899,7 +9897,7 @@
         <v>11738</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -9939,7 +9937,7 @@
         <v>1123</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -9981,7 +9979,7 @@
         <v>542</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -10019,7 +10017,7 @@
         <v>2018</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -10063,7 +10061,7 @@
         <v>2521</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -10099,7 +10097,7 @@
         <v>525</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -10143,7 +10141,7 @@
         <v>303</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -10187,7 +10185,7 @@
         <v>425</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -10201,7 +10199,7 @@
         <v>196805171</v>
       </c>
       <c r="C194" s="2">
-        <v>6416233</v>
+        <v>6430690</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2">
@@ -10220,10 +10218,10 @@
         <v>299006377</v>
       </c>
       <c r="L194" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -10260,10 +10258,10 @@
         <v>7526006310</v>
       </c>
       <c r="L195" s="2">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N195" s="2">
         <v>0</v>
@@ -10309,7 +10307,7 @@
         <v>454</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -10353,7 +10351,7 @@
         <v>1301</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -10394,10 +10392,10 @@
         <v>4022829732</v>
       </c>
       <c r="L198" s="2">
-        <v>1397</v>
+        <v>1293</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N198" s="2">
         <v>0</v>
@@ -10443,7 +10441,7 @@
         <v>563</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -10527,7 +10525,7 @@
         <v>360</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N201" s="2">
         <v>0</v>
@@ -10665,7 +10663,7 @@
         <v>210</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N204" s="2">
         <v>0</v>
@@ -10707,7 +10705,7 @@
         <v>577</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -10751,7 +10749,7 @@
         <v>183</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -10829,7 +10827,7 @@
         <v>187</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -10873,7 +10871,7 @@
         <v>184</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
@@ -10887,7 +10885,7 @@
         <v>201173629</v>
       </c>
       <c r="C210" s="2">
-        <v>2447630</v>
+        <v>2478441</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2">
@@ -10906,9 +10904,11 @@
         <v>0</v>
       </c>
       <c r="L210" s="2">
-        <v>320</v>
-      </c>
-      <c r="M210" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M210" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
@@ -10921,7 +10921,7 @@
         <v>201174382</v>
       </c>
       <c r="C211" s="2">
-        <v>2364582</v>
+        <v>2404126</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2">
@@ -10942,7 +10942,9 @@
       <c r="L211" s="2">
         <v>321</v>
       </c>
-      <c r="M211" s="2"/>
+      <c r="M211" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
@@ -10985,7 +10987,7 @@
         <v>162</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -10999,7 +11001,7 @@
         <v>45474165</v>
       </c>
       <c r="C213" s="2">
-        <v>2090769</v>
+        <v>2101994</v>
       </c>
       <c r="D213" s="2">
         <v>79665</v>
@@ -11065,7 +11067,7 @@
         <v>179</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -11149,7 +11151,7 @@
         <v>495</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -11229,7 +11231,7 @@
         <v>245</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -11349,7 +11351,7 @@
         <v>7</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
@@ -11391,7 +11393,7 @@
         <v>31</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -11563,7 +11565,7 @@
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B227" s="2">
         <v>47126495</v>
@@ -11603,7 +11605,7 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B228" s="2">
         <v>45452488</v>
@@ -11645,13 +11647,13 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B229" s="2">
         <v>100192170</v>
       </c>
       <c r="C229" s="2">
-        <v>442853</v>
+        <v>446453</v>
       </c>
       <c r="D229" s="2">
         <v>4410</v>
@@ -11687,7 +11689,7 @@
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B230" s="2">
         <v>197983578</v>
@@ -11715,7 +11717,7 @@
         <v>34</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -11723,7 +11725,7 @@
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B231" s="2">
         <v>164638687</v>
@@ -11751,7 +11753,7 @@
         <v>3</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -11759,7 +11761,7 @@
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B232" s="2">
         <v>197982730</v>
@@ -11787,7 +11789,7 @@
         <v>30</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -11795,7 +11797,7 @@
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B233" s="2">
         <v>45488526</v>
@@ -11831,7 +11833,7 @@
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B234" s="2">
         <v>44553286</v>
@@ -11865,7 +11867,7 @@
         <v>306</v>
       </c>
       <c r="M234" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -11873,7 +11875,7 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B235" s="2">
         <v>144733649</v>
@@ -11901,7 +11903,7 @@
         <v>12</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -11909,7 +11911,7 @@
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B236" s="2">
         <v>200836946</v>
@@ -11943,7 +11945,7 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B237" s="2">
         <v>45468532</v>
@@ -11983,7 +11985,7 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B238" s="2">
         <v>67013550</v>
@@ -12021,7 +12023,7 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B239" s="2">
         <v>198784870</v>
@@ -12059,7 +12061,7 @@
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B240" s="2">
         <v>190837568</v>
@@ -12093,7 +12095,7 @@
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B241" s="2">
         <v>157619354</v>
@@ -12127,7 +12129,7 @@
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B242" s="2">
         <v>201914393</v>
@@ -12157,7 +12159,7 @@
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B243" s="2">
         <v>203607774</v>
@@ -12191,7 +12193,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B244" s="2">
         <v>204469389</v>
@@ -12225,7 +12227,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B245" s="2">
         <v>204469389</v>
@@ -12259,7 +12261,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B246" s="2">
         <v>204469389</v>
@@ -12293,7 +12295,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B247" s="2">
         <v>204469389</v>
@@ -12327,7 +12329,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B248" s="2">
         <v>204469389</v>
@@ -12361,7 +12363,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B249" s="2">
         <v>204469389</v>
@@ -12395,7 +12397,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B250" s="2">
         <v>204469389</v>
@@ -12429,7 +12431,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B251" s="2">
         <v>204469389</v>
